--- a/data/transcriptions/transcription_ex1.xlsx
+++ b/data/transcriptions/transcription_ex1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serenekim/Library/CloudStorage/OneDrive-VrijeUniversiteitBrussel/img-analysis_seorin_project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EA9A68-0CFC-C247-B25A-C939E897A082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{89EA9A68-0CFC-C247-B25A-C939E897A082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7221401E-6C14-BE47-A5F8-FBD92A7DEBC9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
+    <workbookView xWindow="15760" yWindow="760" windowWidth="14480" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_11_45_57_427" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,6 @@
   <authors>
     <author>tc={F6329581-67FE-D446-9D65-3B6FA85C28B6}</author>
     <author>tc={93412397-27B7-ED45-B9E8-56E2B888678C}</author>
-    <author>tc={A418FE72-27AF-4D42-A32D-D0976AD90BAD}</author>
   </authors>
   <commentList>
     <comment ref="K2" authorId="0" shapeId="0" xr:uid="{F6329581-67FE-D446-9D65-3B6FA85C28B6}">
@@ -59,14 +58,6 @@
     398 part 2</t>
       </text>
     </comment>
-    <comment ref="B6" authorId="2" shapeId="0" xr:uid="{A418FE72-27AF-4D42-A32D-D0976AD90BAD}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ditto</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -173,9 +164,6 @@
     <t>Herrent Maris &amp; autres</t>
   </si>
   <si>
-    <t>11 9b 1919</t>
-  </si>
-  <si>
     <t>15 7bre 1919</t>
   </si>
   <si>
@@ -200,9 +188,6 @@
     <t>Areolie Therése</t>
   </si>
   <si>
-    <t>234/1919</t>
-  </si>
-  <si>
     <t xml:space="preserve">arreté le premier novembre 1919 </t>
   </si>
   <si>
@@ -248,9 +233,6 @@
     <t>Willock Elise &amp; autres</t>
   </si>
   <si>
-    <t>15 9b 1919</t>
-  </si>
-  <si>
     <t>18 mars 1921</t>
   </si>
   <si>
@@ -281,9 +263,6 @@
     <t>Bouty Marie &amp; Gélin</t>
   </si>
   <si>
-    <t>26 9b 1919</t>
-  </si>
-  <si>
     <t>non passible</t>
   </si>
   <si>
@@ -305,9 +284,6 @@
     <t>Hessen Gustave</t>
   </si>
   <si>
-    <t>332/1928</t>
-  </si>
-  <si>
     <t>12 mars 1919</t>
   </si>
   <si>
@@ -327,6 +303,21 @@
   </si>
   <si>
     <t>Raoul Oscar</t>
+  </si>
+  <si>
+    <t>15 Db 1919</t>
+  </si>
+  <si>
+    <t>11 Db 1919</t>
+  </si>
+  <si>
+    <t>26 Db 1919</t>
+  </si>
+  <si>
+    <t>33^2/1928</t>
+  </si>
+  <si>
+    <t>214/1919</t>
   </si>
 </sst>
 </file>
@@ -893,9 +884,6 @@
   <threadedComment ref="A6" dT="2024-06-05T09:26:39.05" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{93412397-27B7-ED45-B9E8-56E2B888678C}">
     <text>398 part 2</text>
   </threadedComment>
-  <threadedComment ref="B6" dT="2024-06-05T09:57:35.10" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{A418FE72-27AF-4D42-A32D-D0976AD90BAD}">
-    <text>ditto</text>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -903,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1015,10 +1003,10 @@
       <c r="A3" s="6"/>
       <c r="B3" s="4"/>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1035,7 +1023,7 @@
       <c r="A4" s="6"/>
       <c r="B4" s="4"/>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="5"/>
@@ -1066,7 +1054,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>31</v>
@@ -1086,14 +1074,14 @@
       <c r="L5" s="5"/>
       <c r="N5" s="4"/>
       <c r="O5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S5" s="4">
         <v>303</v>
@@ -1103,36 +1091,36 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>41</v>
-      </c>
       <c r="I6">
-        <v>2229</v>
+        <v>2225</v>
       </c>
       <c r="K6" s="4">
-        <v>2229</v>
+        <v>2225</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="N6" s="4"/>
       <c r="P6" s="4"/>
@@ -1145,10 +1133,10 @@
       <c r="A7" s="6"/>
       <c r="B7" s="4"/>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1165,10 +1153,10 @@
       <c r="A8" s="6"/>
       <c r="B8" s="4"/>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1185,13 +1173,13 @@
       <c r="A9" s="6"/>
       <c r="B9" s="4"/>
       <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1208,13 +1196,13 @@
       <c r="A10" s="6"/>
       <c r="B10" s="4"/>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1232,23 +1220,23 @@
         <v>399</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>53</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I11">
         <v>9480</v>
@@ -1262,14 +1250,14 @@
       <c r="L11" s="5"/>
       <c r="N11" s="4"/>
       <c r="O11" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="S11" s="4">
         <v>39</v>
@@ -1282,29 +1270,29 @@
         <v>400</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I12">
         <v>690510</v>
       </c>
       <c r="J12">
-        <v>21417</v>
+        <v>31417</v>
       </c>
       <c r="K12" s="4">
         <v>659093</v>
@@ -1312,10 +1300,10 @@
       <c r="L12" s="5"/>
       <c r="N12" s="4"/>
       <c r="O12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="S12" s="4"/>
@@ -1327,23 +1315,23 @@
         <v>401</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I13">
         <v>2277</v>
@@ -1354,14 +1342,14 @@
       <c r="L13" s="5"/>
       <c r="N13" s="4"/>
       <c r="O13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="5"/>
@@ -1371,10 +1359,10 @@
       <c r="A14" s="6"/>
       <c r="B14" s="4"/>
       <c r="C14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1392,23 +1380,23 @@
         <v>402</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I15" s="12">
         <v>17737</v>
@@ -1420,17 +1408,17 @@
       <c r="L15" s="13"/>
       <c r="M15" s="12"/>
       <c r="N15" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="O15" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="O15" s="12" t="s">
-        <v>82</v>
-      </c>
       <c r="P15" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="Q15" s="13"/>
       <c r="R15" s="12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="S15" s="11">
         <v>82</v>

--- a/data/transcriptions/transcription_ex1.xlsx
+++ b/data/transcriptions/transcription_ex1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{89EA9A68-0CFC-C247-B25A-C939E897A082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7221401E-6C14-BE47-A5F8-FBD92A7DEBC9}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{89EA9A68-0CFC-C247-B25A-C939E897A082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BB40A3B-5BF6-6A42-8B9F-0912EE1280FA}"/>
   <bookViews>
-    <workbookView xWindow="15760" yWindow="760" windowWidth="14480" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_11_45_57_427" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
   <si>
     <t>Nom.</t>
   </si>
@@ -188,33 +188,12 @@
     <t>Areolie Therése</t>
   </si>
   <si>
-    <t xml:space="preserve">arreté le premier novembre 1919 </t>
-  </si>
-  <si>
     <t>Toussaint</t>
   </si>
   <si>
-    <t>servais</t>
-  </si>
-  <si>
-    <t>arrete le deux novembre 1919</t>
-  </si>
-  <si>
     <t>Dimanche</t>
   </si>
   <si>
-    <t xml:space="preserve">arreté le vingt huit octobre 1919 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">arreté le vingt neuf octobre 1919 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">arreté le trente octobre 1919 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">arreté le trente un octobre 1919 </t>
-  </si>
-  <si>
     <t>trois 9bre</t>
   </si>
   <si>
@@ -266,9 +245,6 @@
     <t>non passible</t>
   </si>
   <si>
-    <t>arreté le trois novembre 1919</t>
-  </si>
-  <si>
     <t>quatre 9bre</t>
   </si>
   <si>
@@ -318,6 +294,30 @@
   </si>
   <si>
     <t>214/1919</t>
+  </si>
+  <si>
+    <t>arreté le vingt huit octobre 1919 servais</t>
+  </si>
+  <si>
+    <t>arreté le vingt neuf octobre 1919 servais</t>
+  </si>
+  <si>
+    <t>arreté le trente octobre 1919 servais</t>
+  </si>
+  <si>
+    <t>arreté le trente un octobre 1919 servais</t>
+  </si>
+  <si>
+    <t>arreté le premier novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>arrete le deux novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>arreté le trois novembre 1919 servais</t>
+  </si>
+  <si>
+    <t>Note</t>
   </si>
 </sst>
 </file>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="137" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -958,7 +958,9 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="3" t="s">
@@ -1002,11 +1004,8 @@
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="4"/>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1022,10 +1021,9 @@
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="4"/>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="K4" s="4"/>
@@ -1053,9 +1051,7 @@
       <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
         <v>31</v>
       </c>
@@ -1074,7 +1070,7 @@
       <c r="L5" s="5"/>
       <c r="N5" s="4"/>
       <c r="O5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="P5" s="4" t="s">
         <v>33</v>
@@ -1094,7 +1090,7 @@
         <v>35</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
@@ -1120,7 +1116,7 @@
       </c>
       <c r="L6" s="5"/>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="N6" s="4"/>
       <c r="P6" s="4"/>
@@ -1132,11 +1128,8 @@
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="4"/>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1152,11 +1145,8 @@
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="4"/>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1172,14 +1162,11 @@
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="4"/>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1195,14 +1182,11 @@
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="4"/>
-      <c r="C10" t="s">
-        <v>44</v>
-      </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1220,23 +1204,23 @@
         <v>399</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I11">
         <v>9480</v>
@@ -1250,14 +1234,14 @@
       <c r="L11" s="5"/>
       <c r="N11" s="4"/>
       <c r="O11" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="S11" s="4">
         <v>39</v>
@@ -1270,23 +1254,23 @@
         <v>400</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I12">
         <v>690510</v>
@@ -1300,10 +1284,10 @@
       <c r="L12" s="5"/>
       <c r="N12" s="4"/>
       <c r="O12" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="S12" s="4"/>
@@ -1315,23 +1299,23 @@
         <v>401</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I13">
         <v>2277</v>
@@ -1342,14 +1326,14 @@
       <c r="L13" s="5"/>
       <c r="N13" s="4"/>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="5"/>
@@ -1358,11 +1342,8 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="4"/>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1380,23 +1361,23 @@
         <v>402</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>38</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="13" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="I15" s="12">
         <v>17737</v>
@@ -1408,17 +1389,17 @@
       <c r="L15" s="13"/>
       <c r="M15" s="12"/>
       <c r="N15" s="11" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="Q15" s="13"/>
       <c r="R15" s="12" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="S15" s="11">
         <v>82</v>

--- a/data/transcriptions/transcription_ex1.xlsx
+++ b/data/transcriptions/transcription_ex1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{89EA9A68-0CFC-C247-B25A-C939E897A082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BB40A3B-5BF6-6A42-8B9F-0912EE1280FA}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{89EA9A68-0CFC-C247-B25A-C939E897A082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B1ACC76-8146-DB46-8790-17622CBD9724}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
+    <workbookView xWindow="16220" yWindow="760" windowWidth="14020" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_11_45_57_427" sheetId="2" r:id="rId1"/>
@@ -80,9 +80,6 @@
     <t>Date du dépot des déclarations</t>
   </si>
   <si>
-    <t>Date du décès ous du judgement d'envoi en possession, en cas d'absence.</t>
-  </si>
-  <si>
     <t>Noms, Prénoms et demeures des parties déclarantes.</t>
   </si>
   <si>
@@ -318,6 +315,9 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>Date du décès ou du judgement d'envoi en possession, en cas d'absence.</t>
   </si>
 </sst>
 </file>
@@ -891,15 +891,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="137" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:21" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>4</v>
@@ -911,39 +911,39 @@
       <c r="E1" s="18"/>
       <c r="F1" s="15"/>
       <c r="G1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>7</v>
       </c>
       <c r="J1" s="18"/>
       <c r="K1" s="15"/>
       <c r="L1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N1" s="15"/>
       <c r="O1" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P1" s="15"/>
       <c r="Q1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>18</v>
       </c>
       <c r="S1" s="15"/>
       <c r="T1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="204" x14ac:dyDescent="0.2">
@@ -959,53 +959,53 @@
         <v>2</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
       <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="O2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q2" s="17"/>
       <c r="R2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1022,7 +1022,7 @@
       <c r="A4" s="6"/>
       <c r="B4" s="4"/>
       <c r="F4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1040,23 +1040,23 @@
         <v>398</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>32</v>
       </c>
       <c r="I5">
         <v>2280</v>
@@ -1070,14 +1070,14 @@
       <c r="L5" s="5"/>
       <c r="N5" s="4"/>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S5" s="4">
         <v>303</v>
@@ -1087,26 +1087,26 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="I6">
         <v>2225</v>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="L6" s="5"/>
       <c r="M6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N6" s="4"/>
       <c r="P6" s="4"/>
@@ -1129,7 +1129,7 @@
       <c r="A7" s="6"/>
       <c r="B7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1146,7 +1146,7 @@
       <c r="A8" s="6"/>
       <c r="B8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1163,10 +1163,10 @@
       <c r="A9" s="6"/>
       <c r="B9" s="4"/>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -1183,10 +1183,10 @@
       <c r="A10" s="6"/>
       <c r="B10" s="4"/>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1204,23 +1204,23 @@
         <v>399</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>44</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="I11">
         <v>9480</v>
@@ -1234,14 +1234,14 @@
       <c r="L11" s="5"/>
       <c r="N11" s="4"/>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S11" s="4">
         <v>39</v>
@@ -1254,23 +1254,23 @@
         <v>400</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" t="s">
         <v>51</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" t="s">
-        <v>52</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="I12">
         <v>690510</v>
@@ -1284,10 +1284,10 @@
       <c r="L12" s="5"/>
       <c r="N12" s="4"/>
       <c r="O12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="S12" s="4"/>
@@ -1299,23 +1299,23 @@
         <v>401</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
         <v>55</v>
       </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="I13">
         <v>2277</v>
@@ -1326,14 +1326,14 @@
       <c r="L13" s="5"/>
       <c r="N13" s="4"/>
       <c r="O13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="5"/>
@@ -1343,7 +1343,7 @@
       <c r="A14" s="6"/>
       <c r="B14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1361,23 +1361,23 @@
         <v>402</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>62</v>
-      </c>
       <c r="E15" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>63</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>64</v>
       </c>
       <c r="I15" s="12">
         <v>17737</v>
@@ -1389,17 +1389,17 @@
       <c r="L15" s="13"/>
       <c r="M15" s="12"/>
       <c r="N15" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q15" s="13"/>
       <c r="R15" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S15" s="11">
         <v>82</v>

--- a/data/transcriptions/transcription_ex1.xlsx
+++ b/data/transcriptions/transcription_ex1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="13_ncr:1_{89EA9A68-0CFC-C247-B25A-C939E897A082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B1ACC76-8146-DB46-8790-17622CBD9724}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{89EA9A68-0CFC-C247-B25A-C939E897A082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9368C57-2FBD-1846-A703-A91FE6ECE0D6}"/>
   <bookViews>
-    <workbookView xWindow="16220" yWindow="760" windowWidth="14020" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_11_45_57_427" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <author>tc={93412397-27B7-ED45-B9E8-56E2B888678C}</author>
   </authors>
   <commentList>
-    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{F6329581-67FE-D446-9D65-3B6FA85C28B6}">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{F6329581-67FE-D446-9D65-3B6FA85C28B6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
   <si>
     <t>Nom.</t>
   </si>
@@ -312,9 +312,6 @@
   </si>
   <si>
     <t>arreté le trois novembre 1919 servais</t>
-  </si>
-  <si>
-    <t>Note</t>
   </si>
   <si>
     <t>Date du décès ou du judgement d'envoi en possession, en cas d'absence.</t>
@@ -348,7 +345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -455,30 +452,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -498,7 +475,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -511,17 +488,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -538,6 +513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,7 +854,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="K2" dT="2024-06-04T15:34:06.38" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{F6329581-67FE-D446-9D65-3B6FA85C28B6}">
+  <threadedComment ref="J2" dT="2024-06-04T15:34:06.38" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{F6329581-67FE-D446-9D65-3B6FA85C28B6}">
     <text>Actif-passif=restant</text>
   </threadedComment>
   <threadedComment ref="A6" dT="2024-06-05T09:26:39.05" personId="{1AD915DC-3A0C-2F48-9C8B-C8EDAE0F9D6B}" id="{93412397-27B7-ED45-B9E8-56E2B888678C}">
@@ -889,154 +865,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="255" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:20" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="2" t="s">
+      <c r="I1" s="16"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="L1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="14" t="s">
+      <c r="M1" s="13"/>
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="16" t="s">
+      <c r="O1" s="13"/>
+      <c r="P1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="Q1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="204" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="1:20" ht="204" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="3" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="J2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="3" t="s">
+      <c r="P2" s="15"/>
+      <c r="Q2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="R2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="S2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="17"/>
       <c r="B3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="N3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="5"/>
-      <c r="S3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="M3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="5"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="5"/>
       <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
       <c r="B4" s="4"/>
-      <c r="F4" t="s">
+      <c r="C4" t="s">
         <v>77</v>
       </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
-      <c r="N4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="5"/>
-      <c r="S4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="M4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="5"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="5"/>
       <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>398</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1051,42 +1024,41 @@
       <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="G5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="H5">
+        <v>2280</v>
+      </c>
       <c r="I5">
-        <v>2280</v>
-      </c>
-      <c r="J5">
         <v>1045</v>
       </c>
-      <c r="K5" s="4">
+      <c r="J5" s="4">
         <v>1235</v>
       </c>
-      <c r="L5" s="5"/>
-      <c r="N5" s="4"/>
-      <c r="O5" t="s">
+      <c r="K5" s="5"/>
+      <c r="M5" s="4"/>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="O5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q5" s="5"/>
-      <c r="R5" t="s">
+      <c r="P5" s="5"/>
+      <c r="Q5" t="s">
         <v>33</v>
       </c>
-      <c r="S5" s="4">
+      <c r="R5" s="4">
         <v>303</v>
       </c>
+      <c r="S5" s="5"/>
       <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1101,106 +1073,105 @@
       <c r="E6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="G6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I6">
+      <c r="H6">
         <v>2225</v>
       </c>
-      <c r="K6" s="4">
+      <c r="J6" s="4">
         <v>2225</v>
       </c>
-      <c r="L6" s="5"/>
-      <c r="M6" t="s">
+      <c r="K6" s="5"/>
+      <c r="L6" t="s">
         <v>75</v>
       </c>
-      <c r="N6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="5"/>
-      <c r="S6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="5"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="5"/>
       <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
       <c r="B7" s="4"/>
-      <c r="F7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="N7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="5"/>
-      <c r="S7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="M7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="5"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="5"/>
       <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
       <c r="B8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>79</v>
       </c>
+      <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
-      <c r="N8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="5"/>
-      <c r="S8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="5"/>
+      <c r="M8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="5"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="5"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
       <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="E9" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
-      <c r="N9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="5"/>
-      <c r="S9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="5"/>
+      <c r="M9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="5"/>
       <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
       <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-      <c r="N10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="5"/>
-      <c r="S10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="5"/>
+      <c r="M10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="5"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="5"/>
       <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>399</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1212,45 +1183,44 @@
       <c r="D11" t="s">
         <v>44</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>47</v>
       </c>
+      <c r="H11">
+        <v>9480</v>
+      </c>
       <c r="I11">
-        <v>9480</v>
-      </c>
-      <c r="J11">
         <v>530</v>
       </c>
-      <c r="K11" s="4">
+      <c r="J11" s="4">
         <v>8950</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="N11" s="4"/>
-      <c r="O11" t="s">
+      <c r="K11" s="5"/>
+      <c r="M11" s="4"/>
+      <c r="N11" t="s">
         <v>71</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="O11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" t="s">
+      <c r="P11" s="5"/>
+      <c r="Q11" t="s">
         <v>49</v>
       </c>
-      <c r="S11" s="4">
+      <c r="R11" s="4">
         <v>39</v>
       </c>
+      <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>400</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1259,43 +1229,42 @@
       <c r="C12" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>70</v>
       </c>
       <c r="E12" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="G12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="5" t="s">
         <v>53</v>
       </c>
+      <c r="H12">
+        <v>690510</v>
+      </c>
       <c r="I12">
-        <v>690510</v>
-      </c>
-      <c r="J12">
         <v>31417</v>
       </c>
-      <c r="K12" s="4">
+      <c r="J12" s="4">
         <v>659093</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="N12" s="4"/>
-      <c r="O12" t="s">
+      <c r="K12" s="5"/>
+      <c r="M12" s="4"/>
+      <c r="N12" t="s">
         <v>67</v>
       </c>
-      <c r="P12" s="4" t="s">
+      <c r="O12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="Q12" s="5"/>
-      <c r="S12" s="4"/>
+      <c r="P12" s="5"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="5"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>401</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1310,115 +1279,113 @@
       <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="G13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I13">
+      <c r="H13">
         <v>2277</v>
       </c>
-      <c r="K13" s="4">
+      <c r="J13" s="4">
         <v>2277</v>
       </c>
-      <c r="L13" s="5"/>
-      <c r="N13" s="4"/>
-      <c r="O13" t="s">
+      <c r="K13" s="5"/>
+      <c r="M13" s="4"/>
+      <c r="N13" t="s">
         <v>67</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="O13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" t="s">
+      <c r="P13" s="5"/>
+      <c r="Q13" t="s">
         <v>58</v>
       </c>
-      <c r="S13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="5"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
       <c r="B14" s="4"/>
-      <c r="F14" s="4" t="s">
+      <c r="C14" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
-      <c r="N14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="5"/>
-      <c r="S14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="5"/>
+      <c r="M14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="5"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="5"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
         <v>402</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="13" t="s">
+      <c r="F15" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="G15" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="12">
+      <c r="H15" s="10">
         <v>17737</v>
       </c>
-      <c r="J15" s="12"/>
-      <c r="K15" s="11">
+      <c r="I15" s="10"/>
+      <c r="J15" s="9">
         <v>17737</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="11" t="s">
+      <c r="K15" s="11"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="N15" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="P15" s="11" t="s">
+      <c r="O15" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="12" t="s">
+      <c r="P15" s="11"/>
+      <c r="Q15" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="S15" s="11">
+      <c r="R15" s="9">
         <v>82</v>
       </c>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/data/transcriptions/transcription_ex1.xlsx
+++ b/data/transcriptions/transcription_ex1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{89EA9A68-0CFC-C247-B25A-C939E897A082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9368C57-2FBD-1846-A703-A91FE6ECE0D6}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{89EA9A68-0CFC-C247-B25A-C939E897A082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B065DD9F-47DE-2C4C-8366-DEBE0A220F9D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
   <sheets>
     <sheet name="IMG_2024_03_19_11_45_57_427" sheetId="2" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t>Nom.</t>
   </si>
@@ -164,9 +164,6 @@
     <t>15 7bre 1919</t>
   </si>
   <si>
-    <t>passible</t>
-  </si>
-  <si>
     <t>398^2</t>
   </si>
   <si>
@@ -182,15 +179,6 @@
     <t>8 Janvier 1919</t>
   </si>
   <si>
-    <t>Areolie Therése</t>
-  </si>
-  <si>
-    <t>Toussaint</t>
-  </si>
-  <si>
-    <t>Dimanche</t>
-  </si>
-  <si>
     <t>trois 9bre</t>
   </si>
   <si>
@@ -212,18 +200,6 @@
     <t>18 mars 1921</t>
   </si>
   <si>
-    <t>10 fevrier 1920</t>
-  </si>
-  <si>
-    <t>Monseus</t>
-  </si>
-  <si>
-    <t>Chabuy</t>
-  </si>
-  <si>
-    <t>1 8br 1918</t>
-  </si>
-  <si>
     <t>Monseus arthur</t>
   </si>
   <si>
@@ -233,9 +209,6 @@
     <t>Henri</t>
   </si>
   <si>
-    <t>26 fevrier 1919</t>
-  </si>
-  <si>
     <t>Bouty Marie &amp; Gélin</t>
   </si>
   <si>
@@ -275,9 +248,6 @@
     <t>1 août 1919</t>
   </si>
   <si>
-    <t>Raoul Oscar</t>
-  </si>
-  <si>
     <t>15 Db 1919</t>
   </si>
   <si>
@@ -287,9 +257,6 @@
     <t>26 Db 1919</t>
   </si>
   <si>
-    <t>33^2/1928</t>
-  </si>
-  <si>
     <t>214/1919</t>
   </si>
   <si>
@@ -305,16 +272,43 @@
     <t>arreté le trente un octobre 1919 servais</t>
   </si>
   <si>
-    <t>arreté le premier novembre 1919 servais</t>
-  </si>
-  <si>
-    <t>arrete le deux novembre 1919 servais</t>
-  </si>
-  <si>
     <t>arreté le trois novembre 1919 servais</t>
   </si>
   <si>
     <t>Date du décès ou du judgement d'envoi en possession, en cas d'absence.</t>
+  </si>
+  <si>
+    <t>Monseur</t>
+  </si>
+  <si>
+    <t>Raoul Max</t>
+  </si>
+  <si>
+    <t>26 février 1919</t>
+  </si>
+  <si>
+    <t>Clabecq</t>
+  </si>
+  <si>
+    <t>arrete le deux novembre 1919 Dimanche servais</t>
+  </si>
+  <si>
+    <t>arreté le premier novembre 1919 Toussaint servais</t>
+  </si>
+  <si>
+    <t>1 8b 1918</t>
+  </si>
+  <si>
+    <t>Arcolie Therése</t>
+  </si>
+  <si>
+    <t>7 avril 1920</t>
+  </si>
+  <si>
+    <t>10 février 1920</t>
+  </si>
+  <si>
+    <t>33^2/1920</t>
   </si>
 </sst>
 </file>
@@ -498,6 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -513,7 +508,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,53 +861,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB076F5B-4564-1543-8968-7E29FE54F40E}">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="255" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:20" ht="51" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="13"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="12" t="s">
+      <c r="M1" s="14"/>
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="14" t="s">
+      <c r="O1" s="14"/>
+      <c r="P1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="13"/>
+      <c r="R1" s="14"/>
       <c r="S1" s="1" t="s">
         <v>19</v>
       </c>
@@ -922,8 +916,8 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="204" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
@@ -933,8 +927,8 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
       <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
@@ -959,7 +953,7 @@
       <c r="O2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="15"/>
+      <c r="P2" s="16"/>
       <c r="Q2" s="3" t="s">
         <v>13</v>
       </c>
@@ -974,10 +968,10 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -994,7 +988,7 @@
       <c r="A4" s="5"/>
       <c r="B4" s="4"/>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5"/>
@@ -1042,14 +1036,14 @@
       <c r="K5" s="5"/>
       <c r="M5" s="4"/>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="R5" s="4">
         <v>303</v>
@@ -1059,25 +1053,25 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="H6">
         <v>2225</v>
@@ -1087,7 +1081,7 @@
       </c>
       <c r="K6" s="5"/>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M6" s="4"/>
       <c r="O6" s="4"/>
@@ -1100,7 +1094,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1117,7 +1111,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1134,10 +1128,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1154,10 +1145,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1175,22 +1163,22 @@
         <v>399</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G11" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="H11">
         <v>9480</v>
@@ -1204,14 +1192,14 @@
       <c r="K11" s="5"/>
       <c r="M11" s="4"/>
       <c r="N11" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="R11" s="4">
         <v>39</v>
@@ -1224,22 +1212,22 @@
         <v>400</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H12">
         <v>690510</v>
@@ -1253,10 +1241,10 @@
       <c r="K12" s="5"/>
       <c r="M12" s="4"/>
       <c r="N12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="P12" s="5"/>
       <c r="R12" s="4"/>
@@ -1268,22 +1256,22 @@
         <v>401</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H13">
         <v>2277</v>
@@ -1294,14 +1282,14 @@
       <c r="K13" s="5"/>
       <c r="M13" s="4"/>
       <c r="N13" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="P13" s="5"/>
       <c r="Q13" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="5"/>
@@ -1311,7 +1299,7 @@
       <c r="A14" s="5"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1329,22 +1317,22 @@
         <v>402</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H15" s="10">
         <v>17737</v>
@@ -1356,17 +1344,17 @@
       <c r="K15" s="11"/>
       <c r="L15" s="10"/>
       <c r="M15" s="9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="P15" s="11"/>
       <c r="Q15" s="10" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="R15" s="9">
         <v>82</v>

--- a/data/transcriptions/transcription_ex1.xlsx
+++ b/data/transcriptions/transcription_ex1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{89EA9A68-0CFC-C247-B25A-C939E897A082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B065DD9F-47DE-2C4C-8366-DEBE0A220F9D}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{89EA9A68-0CFC-C247-B25A-C939E897A082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8CE4AEB-4B18-754C-8D70-050D2E63A951}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -281,9 +281,6 @@
     <t>Monseur</t>
   </si>
   <si>
-    <t>Raoul Max</t>
-  </si>
-  <si>
     <t>26 février 1919</t>
   </si>
   <si>
@@ -309,6 +306,9 @@
   </si>
   <si>
     <t>33^2/1920</t>
+  </si>
+  <si>
+    <t>Raoul Oscar</t>
   </si>
 </sst>
 </file>
@@ -862,7 +862,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R5" s="4">
         <v>303</v>
@@ -1071,7 +1071,7 @@
         <v>37</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6">
         <v>2225</v>
@@ -1128,7 +1128,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1145,7 +1145,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R11" s="4">
         <v>39</v>
@@ -1218,13 +1218,13 @@
         <v>71</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>45</v>
@@ -1268,7 +1268,7 @@
         <v>36</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>48</v>
@@ -1344,7 +1344,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="10"/>
       <c r="M15" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>59</v>

--- a/data/transcriptions/transcription_ex1.xlsx
+++ b/data/transcriptions/transcription_ex1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/seorin_kim_vub_be/Documents/img-analysis_seorin_project/data/transcriptions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{89EA9A68-0CFC-C247-B25A-C939E897A082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8CE4AEB-4B18-754C-8D70-050D2E63A951}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{89EA9A68-0CFC-C247-B25A-C939E897A082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A2AA307-26B0-BC42-9133-DD00646D16E4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{6D6EFBF4-D3F9-A04D-9AC4-202B897D114E}"/>
   </bookViews>
@@ -260,21 +260,6 @@
     <t>214/1919</t>
   </si>
   <si>
-    <t>arreté le vingt huit octobre 1919 servais</t>
-  </si>
-  <si>
-    <t>arreté le vingt neuf octobre 1919 servais</t>
-  </si>
-  <si>
-    <t>arreté le trente octobre 1919 servais</t>
-  </si>
-  <si>
-    <t>arreté le trente un octobre 1919 servais</t>
-  </si>
-  <si>
-    <t>arreté le trois novembre 1919 servais</t>
-  </si>
-  <si>
     <t>Date du décès ou du judgement d'envoi en possession, en cas d'absence.</t>
   </si>
   <si>
@@ -287,12 +272,6 @@
     <t>Clabecq</t>
   </si>
   <si>
-    <t>arrete le deux novembre 1919 Dimanche servais</t>
-  </si>
-  <si>
-    <t>arreté le premier novembre 1919 Toussaint servais</t>
-  </si>
-  <si>
     <t>1 8b 1918</t>
   </si>
   <si>
@@ -309,6 +288,27 @@
   </si>
   <si>
     <t>Raoul Oscar</t>
+  </si>
+  <si>
+    <t>arrêté le vingt huit octobre 1919 servais</t>
+  </si>
+  <si>
+    <t>arrêté le vingt neuf octobre 1919 servais</t>
+  </si>
+  <si>
+    <t>arrêté le trente octobre 1919 servais</t>
+  </si>
+  <si>
+    <t>arrêté le trente un octobre 1919 servais</t>
+  </si>
+  <si>
+    <t>arrêté le premier novembre 1919 Toussaint servais</t>
+  </si>
+  <si>
+    <t>arrêté le deux novembre 1919 Dimanche servais</t>
+  </si>
+  <si>
+    <t>arrêté le trois novembre 1919 servais</t>
   </si>
 </sst>
 </file>
@@ -862,7 +862,7 @@
   <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -880,7 +880,7 @@
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
       <c r="F1" s="15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G1" s="15" t="s">
         <v>5</v>
@@ -971,7 +971,7 @@
       <c r="A3" s="12"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -988,7 +988,7 @@
       <c r="A4" s="5"/>
       <c r="B4" s="4"/>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="5"/>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="R5" s="4">
         <v>303</v>
@@ -1071,7 +1071,7 @@
         <v>37</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H6">
         <v>2225</v>
@@ -1094,7 +1094,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
@@ -1111,7 +1111,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -1128,7 +1128,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
@@ -1145,7 +1145,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="P11" s="5"/>
       <c r="Q11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="R11" s="4">
         <v>39</v>
@@ -1215,16 +1215,16 @@
         <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>45</v>
@@ -1268,7 +1268,7 @@
         <v>36</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>48</v>
@@ -1299,7 +1299,7 @@
       <c r="A14" s="5"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -1344,7 +1344,7 @@
       <c r="K15" s="11"/>
       <c r="L15" s="10"/>
       <c r="M15" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>59</v>

--- a/data/transcriptions/transcription_ex1.xlsx
+++ b/data/transcriptions/transcription_ex1.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/serenekim/Desktop/PhD/img-analysis_seorin_project/data/transcriptions/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F01B0E-D97A-1245-BED1-2FE4510CFD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="IMG_2024_03_19_11_45_57_427"/>
+    <sheet name="IMG_2024_03_19_11_45_57_427" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -19,24 +25,15 @@
     <t>N' d'ordre</t>
   </si>
   <si>
-    <t>Date du dépot des déclarations</t>
-  </si>
-  <si>
     <t>Désignation des personnes décédées ou absentes.</t>
   </si>
   <si>
-    <t>Date du décès ou du judgement d'envoi en possession, en cas d'absence.</t>
-  </si>
-  <si>
     <t>Noms, Prénoms et demeures des parties déclarantes.</t>
   </si>
   <si>
     <t>Droits de succession en ligne collatérale et de mutation en ligne directe.</t>
   </si>
   <si>
-    <t>Droit de mutation par déces</t>
-  </si>
-  <si>
     <t>Numéros des déclarations</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>Numéros de la consignation au sommier n'30</t>
   </si>
   <si>
-    <t>(les déclarations qui figurent à l'état n'413 doivent être émargées en conséquence, dans la présnete colonne.)</t>
-  </si>
-  <si>
     <t>arrêté le vingt huit octobre 1919 servais</t>
   </si>
   <si>
@@ -260,14 +254,25 @@
   </si>
   <si>
     <t>14 avril 1920</t>
+  </si>
+  <si>
+    <t>Date du dépôt des déclarations</t>
+  </si>
+  <si>
+    <t>Date du décès ous du judgement d'envoi en possession, en cas d'absence.</t>
+  </si>
+  <si>
+    <t>Droit de mutation par décès</t>
+  </si>
+  <si>
+    <t>(les déclarations qui figurent à l'état n'413 doivent être émargées en conséquence, dans la présente colonne.)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,9 +288,16 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFff0000"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -296,7 +308,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -343,21 +355,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -433,137 +430,111 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -574,10 +545,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -615,71 +586,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -707,7 +678,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -730,11 +701,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -743,13 +714,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -759,7 +730,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -768,7 +739,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -777,7 +748,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -785,10 +756,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -853,602 +824,535 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="38" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="38" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="40" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="38" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="38" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="39" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="44.25" customFormat="1" s="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="M1" s="28"/>
+      <c r="N1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9" t="s">
+      <c r="O1" s="28"/>
+      <c r="P1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="Q1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="4" t="s">
+      <c r="R1" s="28"/>
+      <c r="S1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="S1" s="11" t="s">
+      <c r="D2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="E2" s="22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="38.25" customFormat="1" s="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14" t="s">
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="I2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="J2" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="16" t="s">
+      <c r="K2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="L2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="M2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="N2" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="O2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="P2" s="25"/>
+      <c r="Q2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="S2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="T2" s="22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="17" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="4"/>
+      <c r="M3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="4"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3"/>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="4"/>
+      <c r="M4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="4"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+    </row>
+    <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>398</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="19"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20" t="s">
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="26"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="21" t="s">
+      <c r="E5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="25"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="27">
-        <v>398</v>
-      </c>
-      <c r="B5" s="20" t="s">
+      <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="G5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="H5" s="10">
+        <v>2280</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1045</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1235</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="M5" s="3"/>
+      <c r="N5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="O5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="P5" s="4"/>
+      <c r="Q5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="R5" s="11">
+        <v>303</v>
+      </c>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="28">
-        <v>2280</v>
-      </c>
-      <c r="I5" s="28">
-        <v>1045</v>
-      </c>
-      <c r="J5" s="29">
-        <v>1235</v>
-      </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21" t="s">
+      <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O5" s="20" t="s">
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="21" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="R5" s="29">
-        <v>303</v>
-      </c>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="26" t="s">
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="F6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="G6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="H6" s="10">
+        <v>2225</v>
+      </c>
+      <c r="J6" s="11">
+        <v>2225</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="M6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="4"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="4"/>
+      <c r="M7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="4"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+    </row>
+    <row r="8" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="4"/>
+      <c r="M8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="4"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="28">
-        <v>2225</v>
-      </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="29">
-        <v>2225</v>
-      </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="21" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="4"/>
+      <c r="M9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="4"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="25"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="26"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="4"/>
+      <c r="M10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="4"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9">
+        <v>399</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="26"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20" t="s">
+      <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="26"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20" t="s">
+      <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="25"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="26"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20" t="s">
+      <c r="E11" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="25"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="27">
-        <v>399</v>
-      </c>
-      <c r="B11" s="20" t="s">
+      <c r="F11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="G11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="H11" s="10">
+        <v>9480</v>
+      </c>
+      <c r="I11" s="10">
+        <v>530</v>
+      </c>
+      <c r="J11" s="11">
+        <v>8950</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="M11" s="3"/>
+      <c r="N11" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="O11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="20" t="s">
+      <c r="P11" s="4"/>
+      <c r="Q11" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="R11" s="11">
+        <v>39</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+    </row>
+    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9">
+        <v>400</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="28">
-        <v>9480</v>
-      </c>
-      <c r="I11" s="28">
-        <v>530</v>
-      </c>
-      <c r="J11" s="29">
-        <v>8950</v>
-      </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="21" t="s">
+      <c r="D12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="20" t="s">
+      <c r="E12" t="s">
         <v>57</v>
       </c>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="21" t="s">
+      <c r="F12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="R11" s="29">
-        <v>39</v>
-      </c>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="27">
-        <v>400</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="G12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="H12" s="10">
+        <v>690510</v>
+      </c>
+      <c r="I12" s="10">
+        <v>31417</v>
+      </c>
+      <c r="J12" s="11">
+        <v>659093</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="M12" s="3"/>
+      <c r="N12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="O12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="P12" s="4"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9">
+        <v>401</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>62</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="D13" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="28">
-        <v>690510</v>
-      </c>
-      <c r="I12" s="28">
-        <v>31417</v>
-      </c>
-      <c r="J12" s="29">
-        <v>659093</v>
-      </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="21" t="s">
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="G13" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="27">
-        <v>401</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="21" t="s">
+      <c r="H13" s="10">
+        <v>2277</v>
+      </c>
+      <c r="J13" s="11">
+        <v>2277</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="M13" s="3"/>
+      <c r="N13" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="P13" s="4"/>
+      <c r="Q13" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="22" t="s">
+      <c r="R13" s="7"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+    </row>
+    <row r="14" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="4"/>
+      <c r="M14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="4"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13">
+        <v>402</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="28">
-        <v>2277</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="29">
-        <v>2277</v>
-      </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="O13" s="20" t="s">
+      <c r="C15" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="21" t="s">
+      <c r="D15" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="R13" s="25"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="26"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20" t="s">
+      <c r="E15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="31">
-        <v>402</v>
-      </c>
-      <c r="B15" s="32" t="s">
+      <c r="G15" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="H15" s="17">
+        <v>17737</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19">
+        <v>17737</v>
+      </c>
+      <c r="K15" s="16"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="N15" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="34" t="s">
+      <c r="O15" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="P15" s="16"/>
+      <c r="Q15" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="35">
-        <v>17737</v>
-      </c>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37">
-        <v>17737</v>
-      </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="N15" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="O15" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="R15" s="37">
+      <c r="R15" s="19">
         <v>82</v>
       </c>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
